--- a/Saucedemo Test Cases.xlsx
+++ b/Saucedemo Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vlajko\ITBOOTCAMP Testiranje Sofvera april 2024\VLADISLAV TODOROVIC ZAVRSNI PROJEKT\ZAVRSNI PROJEKT VLAKIJEVI TEST KEJSOVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlajko\IdeaProjects\VTodorovicITBootcampZavrsniProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,7 +356,20 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -372,23 +385,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,13 +788,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.26171875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.26171875" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.26171875" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.47265625" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.26171875" style="2" customWidth="1"/>
@@ -789,382 +802,382 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="61.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="98.4" x14ac:dyDescent="0.5">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" ht="98.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A11" s="7">
+    <row r="11" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A12" s="7">
+    <row r="12" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="73.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="7">
+    <row r="14" spans="1:5" ht="74.099999999999994" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A16" s="7">
+    <row r="16" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="7">
+    <row r="17" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A18" s="7">
+    <row r="18" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A19" s="7">
+    <row r="19" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="49.2" x14ac:dyDescent="0.5">
-      <c r="A20" s="7">
+    <row r="20" spans="1:5" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A21" s="7">
+    <row r="21" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36.9" x14ac:dyDescent="0.5">
-      <c r="A22" s="7">
+    <row r="22" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>